--- a/soc_training_trinh_tien_long-Trinh_Tien_Long/CICD/Practice/Practice_CI_CD.xlsx
+++ b/soc_training_trinh_tien_long-Trinh_Tien_Long/CICD/Practice/Practice_CI_CD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\BV_WS\TrainingPlan\CICD\Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\long.trinh-tien\Documents\Linux-Lab\soc_training_trinh_tien_long-Trinh_Tien_Long\CICD\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54128C6-7602-4F59-B959-A36F30A8CA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-75" windowWidth="19365" windowHeight="10365"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practice_CI_CD" sheetId="1" r:id="rId1"/>
@@ -190,9 +191,6 @@
     <t>cd build</t>
   </si>
   <si>
-    <t>cmake .. -DJOD_ID=&lt;job_id&gt;</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
@@ -254,11 +252,14 @@
   <si>
     <t>Allow failure in manual trigger pipeline</t>
   </si>
+  <si>
+    <t>cmake .. -DJOB_ID=&lt;job_id&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -552,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,14 +621,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -636,10 +634,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,20 +955,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="50.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -988,7 +983,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -996,14 +991,14 @@
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1016,9 +1011,9 @@
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1031,9 +1026,9 @@
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1047,7 +1042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1061,7 +1056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1069,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1089,15 +1084,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>32</v>
@@ -1113,21 +1108,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.140625" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.1796875" customWidth="1"/>
+    <col min="4" max="6" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="50" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -1152,38 +1147,38 @@
         <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +1187,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="14"/>
       <c r="C7" s="12" t="s">
         <v>10</v>
@@ -1201,7 +1196,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="15"/>
       <c r="C8" s="12" t="s">
         <v>11</v>
@@ -1216,371 +1211,371 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-    </row>
-    <row r="3" spans="1:20" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="28" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+    </row>
+    <row r="3" spans="1:20" s="28" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-    </row>
-    <row r="5" spans="1:20" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="4" spans="1:20" s="28" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+    </row>
+    <row r="5" spans="1:20" s="28" customFormat="1" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-    </row>
-    <row r="6" spans="1:20" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-    </row>
-    <row r="7" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-    </row>
-    <row r="8" spans="1:20" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:20" s="28" customFormat="1" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" s="28" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:20" s="28" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-    </row>
-    <row r="10" spans="1:20" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+    <row r="9" spans="1:20" s="28" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+    </row>
+    <row r="10" spans="1:20" s="28" customFormat="1" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+    </row>
+    <row r="11" spans="1:20" s="28" customFormat="1" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-    </row>
-    <row r="11" spans="1:20" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+    </row>
+    <row r="12" spans="1:20" s="28" customFormat="1" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-    </row>
-    <row r="12" spans="1:20" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+    </row>
+    <row r="13" spans="1:20" s="28" customFormat="1" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-    </row>
-    <row r="13" spans="1:20" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+    </row>
+    <row r="14" spans="1:20" s="28" customFormat="1" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-    </row>
-    <row r="14" spans="1:20" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-    </row>
-    <row r="15" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-    </row>
-    <row r="16" spans="1:20" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12" s="29" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+    </row>
+    <row r="15" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+    </row>
+    <row r="16" spans="1:20" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-    </row>
-    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -1589,7 +1584,7 @@
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>34</v>
       </c>
@@ -1600,7 +1595,7 @@
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -1609,88 +1604,88 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="34.5" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
